--- a/HTML_CSS Notes.xlsx
+++ b/HTML_CSS Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="HTML_Site Content" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="104">
   <si>
     <t>&lt;!DOCTYPE html&gt;</t>
   </si>
@@ -428,6 +428,60 @@
   </si>
   <si>
     <t>Border color changes the color of the border.</t>
+  </si>
+  <si>
+    <t>rgb(255, 255, 255) or hex</t>
+  </si>
+  <si>
+    <t>border-style</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>border</t>
+  </si>
+  <si>
+    <t>10px black solid</t>
+  </si>
+  <si>
+    <t>This is border shorthand where all 4 sides of an elements border have the same styling.</t>
+  </si>
+  <si>
+    <t>any-width</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>Any auto width tells the browers to evenly split any unused space on either side of the element (centering the element horizontally)</t>
+  </si>
+  <si>
+    <t>&lt;header&gt;</t>
+  </si>
+  <si>
+    <t>group all content in the header under this section tag; functions as a specific type of &lt;div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/header&gt;</t>
+  </si>
+  <si>
+    <t>&lt;nav&gt;</t>
+  </si>
+  <si>
+    <t>group all elements for the nav bar</t>
+  </si>
+  <si>
+    <t>&lt;/nav&gt;</t>
+  </si>
+  <si>
+    <t>&lt;footer&gt;</t>
+  </si>
+  <si>
+    <t>group all content in the footer under this section tag; functions as a specific type of &lt;div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/footer&gt;</t>
   </si>
 </sst>
 </file>
@@ -567,8 +621,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -694,17 +754,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -727,8 +781,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -764,6 +824,9 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -799,6 +862,9 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1130,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1139,7 +1205,8 @@
     <col min="1" max="1" width="16.83203125" style="14" customWidth="1"/>
     <col min="2" max="3" width="14.5" style="14" customWidth="1"/>
     <col min="4" max="4" width="62.1640625" style="15" customWidth="1"/>
-    <col min="5" max="14" width="14.5" style="14" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="14" customWidth="1"/>
+    <col min="6" max="14" width="14.5" style="14" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
@@ -1659,10 +1726,16 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="2:18" ht="19">
-      <c r="C31" s="3"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="3"/>
+    <row r="31" spans="2:18" ht="57">
+      <c r="C31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -1686,9 +1759,15 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" ht="19">
-      <c r="C33" s="3"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -1711,10 +1790,16 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="19">
-      <c r="C35" s="3"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="3"/>
+    <row r="35" spans="1:13" ht="57">
+      <c r="C35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -2163,8 +2248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2177,27 +2262,27 @@
     <col min="6" max="7" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="20" customFormat="1" ht="24" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:17" s="19" customFormat="1" ht="24" customHeight="1">
+      <c r="A1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:17" s="23" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1">
+      <c r="A2" s="20"/>
+      <c r="B2" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" ht="19">
       <c r="A3" s="3" t="s">
@@ -2260,7 +2345,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="24" customFormat="1"/>
+    <row r="10" spans="1:17" s="22" customFormat="1"/>
     <row r="12" spans="1:17" ht="19">
       <c r="A12" s="3" t="s">
         <v>34</v>
@@ -2318,15 +2403,15 @@
       <c r="H14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
     </row>
     <row r="15" spans="1:17" ht="19">
       <c r="A15" s="3"/>
@@ -2351,15 +2436,15 @@
       <c r="H15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
     </row>
     <row r="16" spans="1:17" ht="19">
       <c r="A16" s="3"/>
@@ -2393,15 +2478,15 @@
       <c r="H17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
     </row>
     <row r="18" spans="1:23" ht="19">
       <c r="A18" s="3"/>
@@ -2414,7 +2499,7 @@
       <c r="D18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="24" t="s">
         <v>75</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -2426,15 +2511,15 @@
       <c r="H18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
     </row>
     <row r="19" spans="1:23" ht="19">
       <c r="A19" s="3"/>
@@ -2472,7 +2557,7 @@
       <c r="D20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="24" t="s">
         <v>65</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -2481,7 +2566,7 @@
       <c r="G20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="27"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
@@ -2534,15 +2619,15 @@
       <c r="H22" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
     </row>
     <row r="23" spans="1:23" ht="19">
       <c r="A23" s="3"/>
@@ -2576,25 +2661,25 @@
       <c r="H24" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
     </row>
     <row r="25" spans="1:23" s="18" customFormat="1" ht="19">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="27"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="25"/>
     </row>
     <row r="26" spans="1:23" ht="19">
       <c r="A26" s="3"/>
@@ -2616,18 +2701,18 @@
       <c r="G26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="28" t="s">
+      <c r="H26" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
     </row>
     <row r="27" spans="1:23" ht="19">
       <c r="A27" s="3"/>
@@ -2658,17 +2743,17 @@
         <v>39</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="28" t="s">
+      <c r="H28" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
     </row>
     <row r="29" spans="1:23" ht="19">
       <c r="A29" s="3"/>
@@ -2685,17 +2770,17 @@
         <v>39</v>
       </c>
       <c r="G29" s="3"/>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
     </row>
     <row r="30" spans="1:23" ht="19">
       <c r="A30" s="3"/>
@@ -2714,49 +2799,90 @@
       <c r="G30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
     </row>
     <row r="31" spans="1:23" ht="19">
       <c r="A31" s="3"/>
     </row>
     <row r="32" spans="1:23" ht="19">
       <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="19">
+    <row r="33" spans="1:16" ht="19">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" ht="19">
+      <c r="C33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="19">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" ht="19">
+      <c r="C34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+    </row>
+    <row r="35" spans="1:16" ht="19">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2765,16 +2891,39 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="19">
+    <row r="36" spans="1:16" ht="19">
       <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" ht="19">
+      <c r="B36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+    </row>
+    <row r="37" spans="1:16" ht="19">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2783,7 +2932,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="19">
+    <row r="38" spans="1:16" ht="19">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2792,7 +2941,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="19">
+    <row r="39" spans="1:16" ht="19">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2801,7 +2950,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="19">
+    <row r="40" spans="1:16" ht="19">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2810,7 +2959,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="19">
+    <row r="41" spans="1:16" ht="19">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2819,7 +2968,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="19">
+    <row r="42" spans="1:16" ht="19">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2828,7 +2977,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="19">
+    <row r="43" spans="1:16" ht="19">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2837,7 +2986,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="19">
+    <row r="44" spans="1:16" ht="19">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2846,7 +2995,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="19">
+    <row r="45" spans="1:16" ht="19">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2855,7 +3004,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="19">
+    <row r="46" spans="1:16" ht="19">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2864,7 +3013,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="19">
+    <row r="47" spans="1:16" ht="19">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2873,7 +3022,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="19">
+    <row r="48" spans="1:16" ht="19">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
